--- a/solver/excel/result/1/铅钡.xlsx
+++ b/solver/excel/result/1/铅钡.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>氧化铅(PbO)</t>
+          <t>二氧化硅(SiO2)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -446,110 +446,110 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>氧化锡(SnO2)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
           <t>氧化钾(K2O)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>氧化钙(CaO)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>氧化镁(MgO)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>氧化铝(Al2O3)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>氧化铁(Fe2O3)</t>
+        </is>
+      </c>
       <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>氧化铜(CuO)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>氧化铅(PbO)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>氧化钡(BaO)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>五氧化二磷(P2O5)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>氧化锶(SrO)</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>五氧化二磷(P2O5)</t>
+          <t>氧化锡(SnO2)</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>氧化铁(Fe2O3)</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>氧化铜(CuO)</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>二氧化硅(SiO2)</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>二氧化硫(SO2)</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>氧化钡(BaO)</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>25.89910000857638</v>
+        <v>55.35610555204619</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5579542635721173</v>
+        <v>2.037003347313775</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1890690108965949</v>
+        <v>0.2786370608990753</v>
       </c>
       <c r="E2" t="n">
-        <v>2.780372812739234</v>
+        <v>1.349066136722678</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7044948394439094</v>
+        <v>0.7288934718702339</v>
       </c>
       <c r="G2" t="n">
-        <v>3.069316824873824</v>
+        <v>4.540354001863148</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6334592538835323</v>
+        <v>0.9348774886612776</v>
       </c>
       <c r="I2" t="n">
-        <v>2.215015739908419</v>
+        <v>1.466164957459845</v>
       </c>
       <c r="J2" t="n">
-        <v>43.10675008329319</v>
+        <v>21.87277673751716</v>
       </c>
       <c r="K2" t="n">
-        <v>11.73387487394911</v>
+        <v>9.172373429632714</v>
       </c>
       <c r="L2" t="n">
-        <v>5.438067460533225</v>
+        <v>0.9112871897474234</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4245521374543455</v>
+        <v>0.2872206430908091</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1432415418643535</v>
+        <v>0.1619215837242954</v>
       </c>
       <c r="O2" t="n">
-        <v>2.027812803994295</v>
+        <v>0.8599809404838122</v>
       </c>
     </row>
     <row r="3">
@@ -557,46 +557,46 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>25.80611346139188</v>
+        <v>55.25669951336262</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5641551586282842</v>
+        <v>2.06486930197863</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1831339034713953</v>
+        <v>0.2707129572542415</v>
       </c>
       <c r="E3" t="n">
-        <v>2.751156907914454</v>
+        <v>1.32746273344816</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6835526305337566</v>
+        <v>0.7135529580243311</v>
       </c>
       <c r="G3" t="n">
-        <v>3.024151727448173</v>
+        <v>4.482462696816352</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6030931023471182</v>
+        <v>0.8873982731685877</v>
       </c>
       <c r="I3" t="n">
-        <v>2.435291275225183</v>
+        <v>1.624497555393493</v>
       </c>
       <c r="J3" t="n">
-        <v>43.00808343045125</v>
+        <v>21.80703910597401</v>
       </c>
       <c r="K3" t="n">
-        <v>12.17854093933144</v>
+        <v>9.441041269771349</v>
       </c>
       <c r="L3" t="n">
-        <v>5.417701238022459</v>
+        <v>0.9040820515258082</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4266632338553149</v>
+        <v>0.2891985657157687</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1369621376243801</v>
+        <v>0.1591816443882143</v>
       </c>
       <c r="O3" t="n">
-        <v>2.263603080586257</v>
+        <v>0.906699244314805</v>
       </c>
     </row>
     <row r="4">
@@ -604,46 +604,46 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>25.73784969504908</v>
+        <v>55.18372303662243</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5647632038730042</v>
+        <v>2.06760177222205</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1857869753268155</v>
+        <v>0.2742551368397836</v>
       </c>
       <c r="E4" t="n">
-        <v>2.772285217275983</v>
+        <v>1.343085846625156</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6873141477082156</v>
+        <v>0.7163083314686488</v>
       </c>
       <c r="G4" t="n">
-        <v>3.019686014347309</v>
+        <v>4.476738675965978</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6061994366857688</v>
+        <v>0.8922552046529831</v>
       </c>
       <c r="I4" t="n">
-        <v>2.349822006110535</v>
+        <v>1.563062810028094</v>
       </c>
       <c r="J4" t="n">
-        <v>43.02764386382159</v>
+        <v>21.82007143781751</v>
       </c>
       <c r="K4" t="n">
-        <v>12.19881601909296</v>
+        <v>9.453291500477578</v>
       </c>
       <c r="L4" t="n">
-        <v>5.47422017656609</v>
+        <v>0.9240772550610027</v>
       </c>
       <c r="M4" t="n">
-        <v>0.428247091116285</v>
+        <v>0.2906825088979658</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1392284145234526</v>
+        <v>0.1601705059083395</v>
       </c>
       <c r="O4" t="n">
-        <v>2.470808692424264</v>
+        <v>0.9477539259125816</v>
       </c>
     </row>
     <row r="5">
@@ -651,46 +651,46 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>25.85504756282498</v>
+        <v>55.309011867432</v>
       </c>
       <c r="C5" t="n">
-        <v>0.561732197885199</v>
+        <v>2.053980855454384</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1833414816337862</v>
+        <v>0.2709900998155043</v>
       </c>
       <c r="E5" t="n">
-        <v>2.761049761755908</v>
+        <v>1.334777903467866</v>
       </c>
       <c r="F5" t="n">
-        <v>0.701113787509266</v>
+        <v>0.7264167954967129</v>
       </c>
       <c r="G5" t="n">
-        <v>3.071297694940382</v>
+        <v>4.542893023360222</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6229445053110755</v>
+        <v>0.9184370776093711</v>
       </c>
       <c r="I5" t="n">
-        <v>2.353889853915293</v>
+        <v>1.565986752126338</v>
       </c>
       <c r="J5" t="n">
-        <v>43.03963530845897</v>
+        <v>21.82806085619279</v>
       </c>
       <c r="K5" t="n">
-        <v>11.91673434263882</v>
+        <v>9.2828573687647</v>
       </c>
       <c r="L5" t="n">
-        <v>5.456762374896097</v>
+        <v>0.9179010545401969</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4245802031288847</v>
+        <v>0.2872469383052912</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1389162847350662</v>
+        <v>0.1600343119873114</v>
       </c>
       <c r="O5" t="n">
-        <v>2.234546934348279</v>
+        <v>0.9009422051029943</v>
       </c>
     </row>
     <row r="6">
@@ -698,46 +698,46 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>25.86451220751782</v>
+        <v>55.31912992068756</v>
       </c>
       <c r="C6" t="n">
-        <v>0.559114514305441</v>
+        <v>2.042217351750523</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1859270244490417</v>
+        <v>0.2744421197670304</v>
       </c>
       <c r="E6" t="n">
-        <v>2.775223075943155</v>
+        <v>1.345258216296097</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6993062502834992</v>
+        <v>0.7250927446309317</v>
       </c>
       <c r="G6" t="n">
-        <v>3.042982280330127</v>
+        <v>4.506599150476915</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6183836301495522</v>
+        <v>0.9113058883189026</v>
       </c>
       <c r="I6" t="n">
-        <v>2.281494570287071</v>
+        <v>1.513949501060231</v>
       </c>
       <c r="J6" t="n">
-        <v>43.07411553244182</v>
+        <v>21.85103364582762</v>
       </c>
       <c r="K6" t="n">
-        <v>11.82250025901954</v>
+        <v>9.225921007561455</v>
       </c>
       <c r="L6" t="n">
-        <v>5.455731116210337</v>
+        <v>0.9175362170565049</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4262886933419285</v>
+        <v>0.2888476522496424</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1392978151746478</v>
+        <v>0.1602007880126431</v>
       </c>
       <c r="O6" t="n">
-        <v>2.085993551455207</v>
+        <v>0.871508582235117</v>
       </c>
     </row>
     <row r="7">
@@ -745,46 +745,46 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>25.79956406430518</v>
+        <v>55.24969796701137</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5643254492432416</v>
+        <v>2.06563456417276</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1828544562148223</v>
+        <v>0.2703398605492101</v>
       </c>
       <c r="E7" t="n">
-        <v>2.748590649678246</v>
+        <v>1.325565139931346</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6832592163435637</v>
+        <v>0.713338027284859</v>
       </c>
       <c r="G7" t="n">
-        <v>3.024136557648545</v>
+        <v>4.48244325260948</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6031194013041717</v>
+        <v>0.8874393930927794</v>
       </c>
       <c r="I7" t="n">
-        <v>2.446267186622902</v>
+        <v>1.632386967914004</v>
       </c>
       <c r="J7" t="n">
-        <v>43.02119577320329</v>
+        <v>21.81577533378425</v>
       </c>
       <c r="K7" t="n">
-        <v>12.17871680816381</v>
+        <v>9.441147529958526</v>
       </c>
       <c r="L7" t="n">
-        <v>5.415375126712981</v>
+        <v>0.9032591226053966</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4266183458576457</v>
+        <v>0.2891565093766369</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1367700220861868</v>
+        <v>0.159097817181038</v>
       </c>
       <c r="O7" t="n">
-        <v>2.272927826672993</v>
+        <v>0.9085468027770263</v>
       </c>
     </row>
     <row r="8">
@@ -792,46 +792,46 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>25.7230703725862</v>
+        <v>55.16792339737412</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5640408267873557</v>
+        <v>2.064355510684437</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1862309924316039</v>
+        <v>0.274847954678848</v>
       </c>
       <c r="E8" t="n">
-        <v>2.768996044074936</v>
+        <v>1.340653701000089</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6852376248158566</v>
+        <v>0.7147872441603216</v>
       </c>
       <c r="G8" t="n">
-        <v>3.018995815259172</v>
+        <v>4.475853998898248</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6086673335788193</v>
+        <v>0.8961139026594912</v>
       </c>
       <c r="I8" t="n">
-        <v>2.374517916315554</v>
+        <v>1.580814066950356</v>
       </c>
       <c r="J8" t="n">
-        <v>43.0302065046222</v>
+        <v>21.82177882255061</v>
       </c>
       <c r="K8" t="n">
-        <v>12.2609446902488</v>
+        <v>9.490829727901726</v>
       </c>
       <c r="L8" t="n">
-        <v>5.475245198087655</v>
+        <v>0.9244398859680893</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4275835355743289</v>
+        <v>0.2900608122673667</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1393122594552528</v>
+        <v>0.1602070905934451</v>
       </c>
       <c r="O8" t="n">
-        <v>2.524124998401907</v>
+        <v>0.9583177516046824</v>
       </c>
     </row>
     <row r="9">
@@ -839,46 +839,46 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>25.89491832824861</v>
+        <v>55.35163518198718</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5641369679784664</v>
+        <v>2.064787555743843</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1842943218808313</v>
+        <v>0.272262259581728</v>
       </c>
       <c r="E9" t="n">
-        <v>2.750376426916401</v>
+        <v>1.326885614722926</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6909948941705667</v>
+        <v>0.7190045390325787</v>
       </c>
       <c r="G9" t="n">
-        <v>3.036204117560814</v>
+        <v>4.497911099063296</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6117783966963232</v>
+        <v>0.9009782278602068</v>
       </c>
       <c r="I9" t="n">
-        <v>2.280172528392991</v>
+        <v>1.512999226090449</v>
       </c>
       <c r="J9" t="n">
-        <v>43.10760878622892</v>
+        <v>21.87334885682565</v>
       </c>
       <c r="K9" t="n">
-        <v>11.85781712021328</v>
+        <v>9.247259503021503</v>
       </c>
       <c r="L9" t="n">
-        <v>5.375128224913469</v>
+        <v>0.889020621071597</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4248675661719368</v>
+        <v>0.2875161736960432</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1398623276654799</v>
+        <v>0.1604471059625999</v>
       </c>
       <c r="O9" t="n">
-        <v>2.130411207055189</v>
+        <v>0.8803092739335763</v>
       </c>
     </row>
     <row r="10">
@@ -886,46 +886,46 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>25.91129225860307</v>
+        <v>55.36913951571611</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5662475586776113</v>
+        <v>2.074272255001888</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1835368270207925</v>
+        <v>0.2712509101062508</v>
       </c>
       <c r="E10" t="n">
-        <v>2.743680940705592</v>
+        <v>1.321934705634243</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6911590242637473</v>
+        <v>0.7191247670361178</v>
       </c>
       <c r="G10" t="n">
-        <v>3.037496912037021</v>
+        <v>4.499568165330189</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6072506968887267</v>
+        <v>0.8938989101339122</v>
       </c>
       <c r="I10" t="n">
-        <v>2.284332740465395</v>
+        <v>1.515989559013402</v>
       </c>
       <c r="J10" t="n">
-        <v>43.0866653735097</v>
+        <v>21.85939510133748</v>
       </c>
       <c r="K10" t="n">
-        <v>11.84760937520558</v>
+        <v>9.24109196963542</v>
       </c>
       <c r="L10" t="n">
-        <v>5.360355342583018</v>
+        <v>0.8837942881536347</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4244082131660588</v>
+        <v>0.2870857979430684</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1407336947768147</v>
+        <v>0.160827316080196</v>
       </c>
       <c r="O10" t="n">
-        <v>2.163701606121337</v>
+        <v>0.8869052667824193</v>
       </c>
     </row>
     <row r="11">
@@ -933,46 +933,46 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>25.88474059866815</v>
+        <v>55.34075481476182</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5653734950229042</v>
+        <v>2.070344335249071</v>
       </c>
       <c r="D11" t="n">
-        <v>0.183836581763731</v>
+        <v>0.271651119821241</v>
       </c>
       <c r="E11" t="n">
-        <v>2.748142123855109</v>
+        <v>1.32523348207942</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6921078582424378</v>
+        <v>0.7198198035936276</v>
       </c>
       <c r="G11" t="n">
-        <v>3.031225765817059</v>
+        <v>4.491529992946956</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6068841121759947</v>
+        <v>0.8933257339594055</v>
       </c>
       <c r="I11" t="n">
-        <v>2.28632648916742</v>
+        <v>1.517422652394219</v>
       </c>
       <c r="J11" t="n">
-        <v>43.1235260281717</v>
+        <v>21.88395387641311</v>
       </c>
       <c r="K11" t="n">
-        <v>11.82807798940634</v>
+        <v>9.229291079830423</v>
       </c>
       <c r="L11" t="n">
-        <v>5.373266030010462</v>
+        <v>0.8883618159512725</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4255814891225332</v>
+        <v>0.2881850604204079</v>
       </c>
       <c r="N11" t="n">
-        <v>0.1408196130042742</v>
+        <v>0.1608648054218765</v>
       </c>
       <c r="O11" t="n">
-        <v>2.148786995899736</v>
+        <v>0.8839501606519855</v>
       </c>
     </row>
     <row r="12">
@@ -980,46 +980,46 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>25.84543527621136</v>
+        <v>55.29873597953334</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5641617854684026</v>
+        <v>2.0648990820708</v>
       </c>
       <c r="D12" t="n">
-        <v>0.182919283775017</v>
+        <v>0.2704264133728109</v>
       </c>
       <c r="E12" t="n">
-        <v>2.749945503799108</v>
+        <v>1.326566973012562</v>
       </c>
       <c r="F12" t="n">
-        <v>0.6916354601193563</v>
+        <v>0.7194737641677484</v>
       </c>
       <c r="G12" t="n">
-        <v>3.020836024503371</v>
+        <v>4.478212725454327</v>
       </c>
       <c r="H12" t="n">
-        <v>0.6089540549376778</v>
+        <v>0.8965622079103978</v>
       </c>
       <c r="I12" t="n">
-        <v>2.279213492077715</v>
+        <v>1.512309877129876</v>
       </c>
       <c r="J12" t="n">
-        <v>43.19532109419373</v>
+        <v>21.93178804794757</v>
       </c>
       <c r="K12" t="n">
-        <v>11.81820920240173</v>
+        <v>9.22332834532979</v>
       </c>
       <c r="L12" t="n">
-        <v>5.391232453629885</v>
+        <v>0.8947179561465202</v>
       </c>
       <c r="M12" t="n">
-        <v>0.426662076247305</v>
+        <v>0.2891974811328606</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1379343189941594</v>
+        <v>0.1596058435439092</v>
       </c>
       <c r="O12" t="n">
-        <v>2.129736668889399</v>
+        <v>0.8801756243215971</v>
       </c>
     </row>
     <row r="13">
@@ -1027,46 +1027,46 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>25.80807719959494</v>
+        <v>55.2587988217216</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5619852371560171</v>
+        <v>2.055117978528581</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1836124230502955</v>
+        <v>0.27135184017036</v>
       </c>
       <c r="E13" t="n">
-        <v>2.755758114009461</v>
+        <v>1.330865048434321</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6930005312997681</v>
+        <v>0.7204737013488545</v>
       </c>
       <c r="G13" t="n">
-        <v>3.011229884850006</v>
+        <v>4.465899855723215</v>
       </c>
       <c r="H13" t="n">
-        <v>0.6107687998431609</v>
+        <v>0.8993996654106796</v>
       </c>
       <c r="I13" t="n">
-        <v>2.2775241260736</v>
+        <v>1.511095572019199</v>
       </c>
       <c r="J13" t="n">
-        <v>43.23600394786854</v>
+        <v>21.95889340085017</v>
       </c>
       <c r="K13" t="n">
-        <v>11.79422893939951</v>
+        <v>9.208839437881407</v>
       </c>
       <c r="L13" t="n">
-        <v>5.402626697498595</v>
+        <v>0.8987489983273392</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4278289815406475</v>
+        <v>0.2902907748260466</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1377066459247312</v>
+        <v>0.1595065012536451</v>
       </c>
       <c r="O13" t="n">
-        <v>2.138742603907369</v>
+        <v>0.8819600151562531</v>
       </c>
     </row>
     <row r="14">
@@ -1074,46 +1074,46 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>25.82433778447551</v>
+        <v>55.27618198497046</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5635540683435356</v>
+        <v>2.062168086352084</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1911627393115448</v>
+        <v>0.2814324477009644</v>
       </c>
       <c r="E14" t="n">
-        <v>2.797031030397226</v>
+        <v>1.361383886114956</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7063797805954565</v>
+        <v>0.7302742223898221</v>
       </c>
       <c r="G14" t="n">
-        <v>3.08640441268309</v>
+        <v>4.562256373711421</v>
       </c>
       <c r="H14" t="n">
-        <v>0.6327775838275249</v>
+        <v>0.9338116585232282</v>
       </c>
       <c r="I14" t="n">
-        <v>2.279953940610053</v>
+        <v>1.512842106637763</v>
       </c>
       <c r="J14" t="n">
-        <v>43.118352335773</v>
+        <v>21.88050685277516</v>
       </c>
       <c r="K14" t="n">
-        <v>11.73339127267704</v>
+        <v>9.172081237087857</v>
       </c>
       <c r="L14" t="n">
-        <v>5.528916506743033</v>
+        <v>0.943427658354085</v>
       </c>
       <c r="M14" t="n">
-        <v>0.4273754420928737</v>
+        <v>0.2898658458959174</v>
       </c>
       <c r="N14" t="n">
-        <v>0.1460816685813812</v>
+        <v>0.1631608374200365</v>
       </c>
       <c r="O14" t="n">
-        <v>2.171192647794459</v>
+        <v>0.8883895042410366</v>
       </c>
     </row>
     <row r="15">
@@ -1121,46 +1121,46 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>25.78763890624738</v>
+        <v>55.23694953447898</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5615018580202041</v>
+        <v>2.052945740333532</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1860740496630478</v>
+        <v>0.2746384166409913</v>
       </c>
       <c r="E15" t="n">
-        <v>2.771160442368092</v>
+        <v>1.34225414327474</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6976070668176032</v>
+        <v>0.723848064683504</v>
       </c>
       <c r="G15" t="n">
-        <v>3.040333033494215</v>
+        <v>4.503203423124073</v>
       </c>
       <c r="H15" t="n">
-        <v>0.6186516727841154</v>
+        <v>0.911724988315568</v>
       </c>
       <c r="I15" t="n">
-        <v>2.294162337333993</v>
+        <v>1.523055008231842</v>
       </c>
       <c r="J15" t="n">
-        <v>43.19371925222197</v>
+        <v>21.93072080491969</v>
       </c>
       <c r="K15" t="n">
-        <v>11.89912611176553</v>
+        <v>9.272218451775792</v>
       </c>
       <c r="L15" t="n">
-        <v>5.498882353526978</v>
+        <v>0.9328022109901249</v>
       </c>
       <c r="M15" t="n">
-        <v>0.4281160852552603</v>
+        <v>0.2905597672475115</v>
       </c>
       <c r="N15" t="n">
-        <v>0.1401488868560271</v>
+        <v>0.1605721424737545</v>
       </c>
       <c r="O15" t="n">
-        <v>2.071749523890711</v>
+        <v>0.8686863419919929</v>
       </c>
     </row>
     <row r="16">
@@ -1168,46 +1168,46 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>25.80138970314647</v>
+        <v>55.25164964207378</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5545121895390812</v>
+        <v>2.021535148273337</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1867468449982981</v>
+        <v>0.2755366817584258</v>
       </c>
       <c r="E16" t="n">
-        <v>2.786050037918309</v>
+        <v>1.353264103061881</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7114801934796092</v>
+        <v>0.7340103590507085</v>
       </c>
       <c r="G16" t="n">
-        <v>3.070603231627446</v>
+        <v>4.54200288053347</v>
       </c>
       <c r="H16" t="n">
-        <v>0.6370197474698409</v>
+        <v>0.9404445241165926</v>
       </c>
       <c r="I16" t="n">
-        <v>2.281974870713809</v>
+        <v>1.514294737830373</v>
       </c>
       <c r="J16" t="n">
-        <v>43.1318294780788</v>
+        <v>21.88948613188958</v>
       </c>
       <c r="K16" t="n">
-        <v>11.7518580579433</v>
+        <v>9.183238893806108</v>
       </c>
       <c r="L16" t="n">
-        <v>5.517944474593341</v>
+        <v>0.9395459857381273</v>
       </c>
       <c r="M16" t="n">
-        <v>0.4260902393243277</v>
+        <v>0.2886617172581155</v>
       </c>
       <c r="N16" t="n">
-        <v>0.1401775828959957</v>
+        <v>0.1605846636311278</v>
       </c>
       <c r="O16" t="n">
-        <v>2.1860493748909</v>
+        <v>0.8913331416991105</v>
       </c>
     </row>
     <row r="17">
@@ -1215,46 +1215,46 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>25.99215612639227</v>
+        <v>55.45558596429332</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5682244095688661</v>
+        <v>2.083155946278052</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1878084863309424</v>
+        <v>0.2769541044520396</v>
       </c>
       <c r="E17" t="n">
-        <v>2.776516807888386</v>
+        <v>1.346214853207039</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7133545263165203</v>
+        <v>0.7353833388046507</v>
       </c>
       <c r="G17" t="n">
-        <v>3.164853065819196</v>
+        <v>4.662809570052658</v>
       </c>
       <c r="H17" t="n">
-        <v>0.6338460959382664</v>
+        <v>0.9354823383491392</v>
       </c>
       <c r="I17" t="n">
-        <v>2.216490561468333</v>
+        <v>1.467225049442979</v>
       </c>
       <c r="J17" t="n">
-        <v>42.92332869971267</v>
+        <v>21.75057042987777</v>
       </c>
       <c r="K17" t="n">
-        <v>11.80756003086123</v>
+        <v>9.216894101433548</v>
       </c>
       <c r="L17" t="n">
-        <v>5.367467920399132</v>
+        <v>0.8863105675594011</v>
       </c>
       <c r="M17" t="n">
-        <v>0.423054628352555</v>
+        <v>0.2858176009880637</v>
       </c>
       <c r="N17" t="n">
-        <v>0.1534717759131811</v>
+        <v>0.1663854181290411</v>
       </c>
       <c r="O17" t="n">
-        <v>2.084060877412879</v>
+        <v>0.8711256518852281</v>
       </c>
     </row>
     <row r="18">
@@ -1262,46 +1262,46 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>25.85584862139333</v>
+        <v>55.3098682285019</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5581476193028273</v>
+        <v>2.037872260910498</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1901200855818834</v>
+        <v>0.2800403758094887</v>
       </c>
       <c r="E18" t="n">
-        <v>2.792409293551463</v>
+        <v>1.357966389874244</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7094514217394846</v>
+        <v>0.7325242502499092</v>
       </c>
       <c r="G18" t="n">
-        <v>3.080380332576927</v>
+        <v>4.554534883469397</v>
       </c>
       <c r="H18" t="n">
-        <v>0.6314411995100927</v>
+        <v>0.9317221451743822</v>
       </c>
       <c r="I18" t="n">
-        <v>2.28308311295281</v>
+        <v>1.515091335022106</v>
       </c>
       <c r="J18" t="n">
-        <v>43.07278566457487</v>
+        <v>21.85014760823213</v>
       </c>
       <c r="K18" t="n">
-        <v>11.73548841719539</v>
+        <v>9.173348334651775</v>
       </c>
       <c r="L18" t="n">
-        <v>5.512207304750886</v>
+        <v>0.9375162965459407</v>
       </c>
       <c r="M18" t="n">
-        <v>0.4255486219239876</v>
+        <v>0.2881542665752795</v>
       </c>
       <c r="N18" t="n">
-        <v>0.1453378987245058</v>
+        <v>0.1628363027651608</v>
       </c>
       <c r="O18" t="n">
-        <v>2.164327897846204</v>
+        <v>0.8870293570863627</v>
       </c>
     </row>
     <row r="19">
@@ -1309,46 +1309,46 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>25.82040135052207</v>
+        <v>55.27197379230497</v>
       </c>
       <c r="C19" t="n">
-        <v>0.562822883186661</v>
+        <v>2.058882242574931</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1846718385666111</v>
+        <v>0.272766291123444</v>
       </c>
       <c r="E19" t="n">
-        <v>2.761208334445358</v>
+        <v>1.334895158428102</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6984412727994808</v>
+        <v>0.7244591343404935</v>
       </c>
       <c r="G19" t="n">
-        <v>3.045940265511434</v>
+        <v>4.51039060963931</v>
       </c>
       <c r="H19" t="n">
-        <v>0.6176544291672402</v>
+        <v>0.9101657408578339</v>
       </c>
       <c r="I19" t="n">
-        <v>2.344125907399508</v>
+        <v>1.558968491947302</v>
       </c>
       <c r="J19" t="n">
-        <v>43.15701945575096</v>
+        <v>21.90626920320188</v>
       </c>
       <c r="K19" t="n">
-        <v>11.85145004858884</v>
+        <v>9.243412509705573</v>
       </c>
       <c r="L19" t="n">
-        <v>5.451965902974406</v>
+        <v>0.916204164350884</v>
       </c>
       <c r="M19" t="n">
-        <v>0.4262556607960719</v>
+        <v>0.2888167034877668</v>
       </c>
       <c r="N19" t="n">
-        <v>0.1404459576521848</v>
+        <v>0.1607017655922682</v>
       </c>
       <c r="O19" t="n">
-        <v>2.284386517010706</v>
+        <v>0.9108171702596893</v>
       </c>
     </row>
     <row r="20">
@@ -1356,46 +1356,46 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>25.9140784666266</v>
+        <v>55.37211807456094</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5631236374698811</v>
+        <v>2.060233790237899</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1842987245050324</v>
+        <v>0.272268137630427</v>
       </c>
       <c r="E20" t="n">
-        <v>2.755767256885488</v>
+        <v>1.330871809040884</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7013790623044239</v>
+        <v>0.7266111136646554</v>
       </c>
       <c r="G20" t="n">
-        <v>3.069443079656368</v>
+        <v>4.540515831562328</v>
       </c>
       <c r="H20" t="n">
-        <v>0.6201175713320111</v>
+        <v>0.9140170045746088</v>
       </c>
       <c r="I20" t="n">
-        <v>2.289440551116024</v>
+        <v>1.519661019527181</v>
       </c>
       <c r="J20" t="n">
-        <v>43.05859334749407</v>
+        <v>21.8406918368633</v>
       </c>
       <c r="K20" t="n">
-        <v>11.77561550912627</v>
+        <v>9.197593178050937</v>
       </c>
       <c r="L20" t="n">
-        <v>5.433461401287291</v>
+        <v>0.9096576635303569</v>
       </c>
       <c r="M20" t="n">
-        <v>0.4234297228332828</v>
+        <v>0.2861690334757456</v>
       </c>
       <c r="N20" t="n">
-        <v>0.1419851607934869</v>
+        <v>0.1613733775910987</v>
       </c>
       <c r="O20" t="n">
-        <v>2.177513170015371</v>
+        <v>0.8896418208410045</v>
       </c>
     </row>
     <row r="21">
@@ -1403,46 +1403,46 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>25.85595692266629</v>
+        <v>55.30998400654566</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5621922655651093</v>
+        <v>2.056048335228678</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1871557255348241</v>
+        <v>0.2760825879261948</v>
       </c>
       <c r="E21" t="n">
-        <v>2.782353710191691</v>
+        <v>1.35053089116953</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7044058768051082</v>
+        <v>0.7288283052682696</v>
       </c>
       <c r="G21" t="n">
-        <v>3.076935751452133</v>
+        <v>4.55011971981383</v>
       </c>
       <c r="H21" t="n">
-        <v>0.6248784405530212</v>
+        <v>0.9214608960208396</v>
       </c>
       <c r="I21" t="n">
-        <v>2.27855770571563</v>
+        <v>1.51183850223003</v>
       </c>
       <c r="J21" t="n">
-        <v>43.07385858065287</v>
+        <v>21.85086244916147</v>
       </c>
       <c r="K21" t="n">
-        <v>11.80825916173451</v>
+        <v>9.217316517255943</v>
       </c>
       <c r="L21" t="n">
-        <v>5.452978235942174</v>
+        <v>0.9165623063163475</v>
       </c>
       <c r="M21" t="n">
-        <v>0.4266865237467262</v>
+        <v>0.2892203864166775</v>
       </c>
       <c r="N21" t="n">
-        <v>0.1435515532166437</v>
+        <v>0.1620568532922848</v>
       </c>
       <c r="O21" t="n">
-        <v>2.162154489539705</v>
+        <v>0.8865987288557187</v>
       </c>
     </row>
     <row r="22">
@@ -1450,46 +1450,46 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>25.85180395212599</v>
+        <v>55.30554432830531</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5609785519704235</v>
+        <v>2.050594076174254</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1868015281235035</v>
+        <v>0.2756096905046384</v>
       </c>
       <c r="E22" t="n">
-        <v>2.783214946868053</v>
+        <v>1.351167723858637</v>
       </c>
       <c r="F22" t="n">
-        <v>0.703278903558658</v>
+        <v>0.7280027787555077</v>
       </c>
       <c r="G22" t="n">
-        <v>3.057816132252476</v>
+        <v>4.525612749375252</v>
       </c>
       <c r="H22" t="n">
-        <v>0.627197432442454</v>
+        <v>0.9250867725337768</v>
       </c>
       <c r="I22" t="n">
-        <v>2.250251561255819</v>
+        <v>1.491492232802687</v>
       </c>
       <c r="J22" t="n">
-        <v>43.13822531447487</v>
+        <v>21.8937474210314</v>
       </c>
       <c r="K22" t="n">
-        <v>11.72514005092143</v>
+        <v>9.167095837705787</v>
       </c>
       <c r="L22" t="n">
-        <v>5.496401028351511</v>
+        <v>0.9319243706909452</v>
       </c>
       <c r="M22" t="n">
-        <v>0.4270848327482638</v>
+        <v>0.2895935689892519</v>
       </c>
       <c r="N22" t="n">
-        <v>0.1401260111484563</v>
+        <v>0.1605621609454727</v>
       </c>
       <c r="O22" t="n">
-        <v>2.101912446279518</v>
+        <v>0.8746626722841427</v>
       </c>
     </row>
     <row r="23">
@@ -1497,46 +1497,46 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>25.85178960662329</v>
+        <v>55.30552899243534</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5636128454400634</v>
+        <v>2.062432222398952</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1838407844401229</v>
+        <v>0.2716567309148453</v>
       </c>
       <c r="E23" t="n">
-        <v>2.760479935714509</v>
+        <v>1.334356551404922</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6972876182141158</v>
+        <v>0.7236140633063868</v>
       </c>
       <c r="G23" t="n">
-        <v>3.043879271736487</v>
+        <v>4.507748887908908</v>
       </c>
       <c r="H23" t="n">
-        <v>0.6161367957396587</v>
+        <v>0.9077928341541098</v>
       </c>
       <c r="I23" t="n">
-        <v>2.289737690433689</v>
+        <v>1.519874601303507</v>
       </c>
       <c r="J23" t="n">
-        <v>43.13897214534172</v>
+        <v>21.89424500446953</v>
       </c>
       <c r="K23" t="n">
-        <v>11.82250314741579</v>
+        <v>9.225922752734393</v>
       </c>
       <c r="L23" t="n">
-        <v>5.423975202168863</v>
+        <v>0.9063016471748493</v>
       </c>
       <c r="M23" t="n">
-        <v>0.4261630795739926</v>
+        <v>0.2887299625441923</v>
       </c>
       <c r="N23" t="n">
-        <v>0.1390233836573673</v>
+        <v>0.1600810432597141</v>
       </c>
       <c r="O23" t="n">
-        <v>2.194736799672836</v>
+        <v>0.8930544245116911</v>
       </c>
     </row>
     <row r="24">
@@ -1544,46 +1544,46 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>25.81697029932906</v>
+        <v>55.26830587239672</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5637843733718255</v>
+        <v>2.063203044921659</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1853937288887646</v>
+        <v>0.2737301041302077</v>
       </c>
       <c r="E24" t="n">
-        <v>2.76742902994919</v>
+        <v>1.339494988363997</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7022449798363537</v>
+        <v>0.7272454125557116</v>
       </c>
       <c r="G24" t="n">
-        <v>3.056516668696497</v>
+        <v>4.523947134876353</v>
       </c>
       <c r="H24" t="n">
-        <v>0.6209342062178865</v>
+        <v>0.9152938599469083</v>
       </c>
       <c r="I24" t="n">
-        <v>2.290937394278654</v>
+        <v>1.520736940492701</v>
       </c>
       <c r="J24" t="n">
-        <v>43.18506780286598</v>
+        <v>21.92495669137477</v>
       </c>
       <c r="K24" t="n">
-        <v>11.76206918396824</v>
+        <v>9.189408470007395</v>
       </c>
       <c r="L24" t="n">
-        <v>5.463389940626508</v>
+        <v>0.9202457469413138</v>
       </c>
       <c r="M24" t="n">
-        <v>0.4271861086922604</v>
+        <v>0.2896884561677356</v>
       </c>
       <c r="N24" t="n">
-        <v>0.1418779160402973</v>
+        <v>0.1613265826872156</v>
       </c>
       <c r="O24" t="n">
-        <v>2.1531235705206</v>
+        <v>0.8848093878162756</v>
       </c>
     </row>
     <row r="25">
@@ -1591,46 +1591,46 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>25.81211855071578</v>
+        <v>55.26311917469756</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5634530948763573</v>
+        <v>2.061714325720231</v>
       </c>
       <c r="D25" t="n">
-        <v>0.182479905718151</v>
+        <v>0.2698397892374011</v>
       </c>
       <c r="E25" t="n">
-        <v>2.780433766478684</v>
+        <v>1.349111208344534</v>
       </c>
       <c r="F25" t="n">
-        <v>0.7033308633959012</v>
+        <v>0.7280408401943024</v>
       </c>
       <c r="G25" t="n">
-        <v>3.03681441259097</v>
+        <v>4.498693357439191</v>
       </c>
       <c r="H25" t="n">
-        <v>0.6131656376489399</v>
+        <v>0.9031472584682044</v>
       </c>
       <c r="I25" t="n">
-        <v>2.270037927277193</v>
+        <v>1.505714541836349</v>
       </c>
       <c r="J25" t="n">
-        <v>43.1856038727108</v>
+        <v>21.92531385320124</v>
       </c>
       <c r="K25" t="n">
-        <v>11.75230564812488</v>
+        <v>9.183509328401222</v>
       </c>
       <c r="L25" t="n">
-        <v>5.461546313181436</v>
+        <v>0.9195935105943976</v>
       </c>
       <c r="M25" t="n">
-        <v>0.4296825706777203</v>
+        <v>0.2920274344546226</v>
       </c>
       <c r="N25" t="n">
-        <v>0.1358583772337426</v>
+        <v>0.1587000323759371</v>
       </c>
       <c r="O25" t="n">
-        <v>2.098773328610104</v>
+        <v>0.8740407032396147</v>
       </c>
     </row>
     <row r="26">
@@ -1638,46 +1638,46 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>25.89012593670312</v>
+        <v>55.34651193917645</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5646090041382812</v>
+        <v>2.066908820192028</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1846408043749974</v>
+        <v>0.2727248566331706</v>
       </c>
       <c r="E26" t="n">
-        <v>2.750273672290111</v>
+        <v>1.326809633861016</v>
       </c>
       <c r="F26" t="n">
-        <v>0.6904733922567626</v>
+        <v>0.7186225302691431</v>
       </c>
       <c r="G26" t="n">
-        <v>3.032778259447138</v>
+        <v>4.493519934017493</v>
       </c>
       <c r="H26" t="n">
-        <v>0.6100353678537802</v>
+        <v>0.8982529025279586</v>
       </c>
       <c r="I26" t="n">
-        <v>2.327332763666542</v>
+        <v>1.546897691298061</v>
       </c>
       <c r="J26" t="n">
-        <v>43.09342833116096</v>
+        <v>21.86390098863998</v>
       </c>
       <c r="K26" t="n">
-        <v>11.85209875932473</v>
+        <v>9.24380446161253</v>
       </c>
       <c r="L26" t="n">
-        <v>5.379272924657734</v>
+        <v>0.890486928067346</v>
       </c>
       <c r="M26" t="n">
-        <v>0.4250535027026711</v>
+        <v>0.2876903808382547</v>
       </c>
       <c r="N26" t="n">
-        <v>0.1406651813876852</v>
+        <v>0.160797421121574</v>
       </c>
       <c r="O26" t="n">
-        <v>2.234294253760876</v>
+        <v>0.9008921402376185</v>
       </c>
     </row>
     <row r="27">
@@ -1685,46 +1685,46 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>25.87995123191375</v>
+        <v>55.33563480556401</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5648254007580235</v>
+        <v>2.067881276319853</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1853097644056862</v>
+        <v>0.2736180011439038</v>
       </c>
       <c r="E27" t="n">
-        <v>2.749602568518221</v>
+        <v>1.326313393011721</v>
       </c>
       <c r="F27" t="n">
-        <v>0.6884000558293407</v>
+        <v>0.7171037770990006</v>
       </c>
       <c r="G27" t="n">
-        <v>3.025908205945101</v>
+        <v>4.484714099741835</v>
       </c>
       <c r="H27" t="n">
-        <v>0.6080192350296645</v>
+        <v>0.8951005634933831</v>
       </c>
       <c r="I27" t="n">
-        <v>2.33432059896922</v>
+        <v>1.551920501097681</v>
       </c>
       <c r="J27" t="n">
-        <v>43.10341362412156</v>
+        <v>21.87055378865486</v>
       </c>
       <c r="K27" t="n">
-        <v>11.86735996782245</v>
+        <v>9.253025304497097</v>
       </c>
       <c r="L27" t="n">
-        <v>5.375805642270275</v>
+        <v>0.8892602769865277</v>
       </c>
       <c r="M27" t="n">
-        <v>0.4255104076555513</v>
+        <v>0.2881184629681578</v>
       </c>
       <c r="N27" t="n">
-        <v>0.1414311053176227</v>
+        <v>0.1611316224285583</v>
       </c>
       <c r="O27" t="n">
-        <v>2.228980027049638</v>
+        <v>0.8998392059872717</v>
       </c>
     </row>
     <row r="28">
@@ -1732,46 +1732,46 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>25.85384506004419</v>
+        <v>55.30772634773518</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5587894957053307</v>
+        <v>2.040756763642859</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1855903144867369</v>
+        <v>0.2739925702562293</v>
       </c>
       <c r="E28" t="n">
-        <v>2.773176664614883</v>
+        <v>1.343745018280997</v>
       </c>
       <c r="F28" t="n">
-        <v>0.702183317562682</v>
+        <v>0.7272002439220165</v>
       </c>
       <c r="G28" t="n">
-        <v>3.058854714053425</v>
+        <v>4.526943973246823</v>
       </c>
       <c r="H28" t="n">
-        <v>0.6255568776077282</v>
+        <v>0.922521671176362</v>
       </c>
       <c r="I28" t="n">
-        <v>2.294064596387747</v>
+        <v>1.522984752686117</v>
       </c>
       <c r="J28" t="n">
-        <v>43.07375483878743</v>
+        <v>21.85079333011943</v>
       </c>
       <c r="K28" t="n">
-        <v>11.82685130112701</v>
+        <v>9.228549913107376</v>
       </c>
       <c r="L28" t="n">
-        <v>5.456595561553798</v>
+        <v>0.9178420395123569</v>
       </c>
       <c r="M28" t="n">
-        <v>0.4255489336829184</v>
+        <v>0.2881545586675981</v>
       </c>
       <c r="N28" t="n">
-        <v>0.1395059044865125</v>
+        <v>0.1602915851757508</v>
       </c>
       <c r="O28" t="n">
-        <v>2.142634512025698</v>
+        <v>0.8827311383280074</v>
       </c>
     </row>
   </sheetData>
